--- a/va_facility_data_2025-02-20/Green Road VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Green%20Road%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Green Road VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Green%20Road%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3369c55a843248cb83e6eb8fcc86cf77"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rff492cdb42dc4e2e8629105e379d9900"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7333b2bbad0c49c6864ca092a96ec3b3"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R0032a46b1d2f4271b4294607e00582d4"/>
   </x:sheets>
 </x:workbook>
 </file>
